--- a/biology/Zoologie/Eulophidae/Eulophidae.xlsx
+++ b/biology/Zoologie/Eulophidae/Eulophidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eulophidae sont une famille d'insectes hyménoptères apocrites térébrants de la super-famille des Chalcidoidea. Ce sont des parasitoïdes de lépidoptères, de diptères ou de coléoptères.  
 Des espèces de cette famille ont été utilisées en lutte biologique contre divers ravageurs des cultures.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Taille de 0,4 à 6 mm (1 à 3 mm généralement). Corps trapu à allongé, jaunâtre à brunâtre avec des reflets métalliques. 
 Antennes de 7 à 10 articles au plus, le mâle ayant souvent les antennes pectinées. 
@@ -554,7 +568,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Eulophidae sont répartis en 4 sous-familles : Eulophinae, Entedontinae, Tetrastichinae, Euderinae, regroupant 540 genres pour 4 000 espèces décrites. Un nombre important de genres ne sont représentés que par une à quelques espèces.
 Depuis des études phylogénétiques moléculaires publiées en 2000, la famille des Elasmidae, ayant pour seul genre Elasmus, intègre la sous-famille des Eulophinae (Hym. Chalcidoidea). (Gauthier, et al. 2000).
@@ -589,7 +605,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eulophidae sont des ectoparasitoïdes de lépidoptères et des insectes mineurs de feuilles dont les Agromyzidae, Curculionidae, Tenthrèdes. 
 Les Tetrastichinae sont des endoparasitoïdes d'œufs, de larves et de pupes de diptères, de lépidoptères ou de coléoptères (Tetrastichus).
@@ -625,7 +643,9 @@
           <t>Utilisation en lutte biologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Polyphage, Pediobius furvus est endémique en Afrique intertropicale. Il a été introduit à Madagascar à partir de l'Ouganda en 1968 sur diverses cultures contre les nymphes du borer rose Sesamia calamistis. Il s'est établi au centre de l'île et sur la côte est et présente une grande plasticité écologique.
 Introduit de l'Inde via Maurice en 1972, Tetrastichus israeli fut lâché à Madagascar sur Chilo partellus, ravageur de la canne à sucre.
